--- a/state-chart/m8/chart/chart/0100_Flow/010_Main/doc/MainFlow.xlsx
+++ b/state-chart/m8/chart/chart/0100_Flow/010_Main/doc/MainFlow.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
   <si>
     <t>state</t>
     <phoneticPr fontId="1"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エクセルファイルロード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>S_LOADEXCEL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -177,11 +173,6 @@
   </si>
   <si>
     <t>S_EDITCHART</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>br_loadexcel(S_LOADEXCEL);
-br_editchart(S_EDITCHART);</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -357,13 +348,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エラー時は、S_ERRORへ</t>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>postproc</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -391,14 +375,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロードへ
-チャート編集へ</t>
-    <rPh sb="9" eb="11">
-      <t>ヘンシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -469,12 +445,92 @@
 }</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ロードへ
+チャート編集へ
+レイアウトセーブへ</t>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>br_loadexcel(S_LOADEXCEL);
+br_editchart(S_EDITCHART);
+br_savelayout(S_SAVELAYOUT);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S_SAVELAYOUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト保存</t>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>save-cmt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブ説明</t>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>save_layout();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー時遷移</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー時遷移</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エクセルロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャート編集</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,18 +547,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -649,46 +723,72 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="アクセント 1" xfId="1" builtinId="29"/>
+    <cellStyle name="アクセント 2" xfId="2" builtinId="33"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -967,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
@@ -978,7 +1078,7 @@
     <col min="1" max="16384" width="15.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="144.75" customHeight="1">
+    <row r="1" spans="1:13" ht="144.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -988,355 +1088,463 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" ht="37.5">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" ht="37.5">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="37.5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="H3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" ht="37.5">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="37.5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="37.5">
+      <c r="I4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" ht="37.5">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="37.5">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="37.5">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="37.5">
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="37.5">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="37.5">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="37.5">
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" ht="37.5">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="37.5">
+      <c r="I12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" ht="37.5">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="37.5">
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="75">
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" ht="37.5">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="37.5">
+      <c r="J15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" ht="37.5">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" ht="112.5">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:13" ht="75">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="1:13" ht="37.5">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" ht="37.5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" ht="19.5" thickBot="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1355,7 +1563,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1584,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/state-chart/m8/chart/chart/0100_Flow/010_Main/doc/MainFlow.xlsx
+++ b/state-chart/m8/chart/chart/0100_Flow/010_Main/doc/MainFlow.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
   <si>
     <t>state</t>
     <phoneticPr fontId="1"/>
@@ -380,6 +380,140 @@
   </si>
   <si>
     <t>command_clear();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロードへ
+チャート編集へ
+レイアウトセーブへ</t>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>br_loadexcel(S_LOADEXCEL);
+br_editchart(S_EDITCHART);
+br_savelayout(S_SAVELAYOUT);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S_SAVELAYOUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト保存</t>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>save-cmt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブ説明</t>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>save_layout();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー時遷移</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー時遷移</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エクセルロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャート編集</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S_CHECK_ARGS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>br_loadexcel(S_LOADEXCEL);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check-cmt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック説明</t>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check_args();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド引数にファイルが指定されているか確認</t>
+    <rPh sb="4" eb="6">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド引数確認</t>
+    <rPh sb="4" eb="6">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -400,11 +534,23 @@
             */
             [[error]]
             &gt;&gt;&gt;
+            &lt;&lt;&lt;?check
+            /*
+                [[check-cmt]]
+            */
+            [[check]]
+            &gt;&gt;&gt;
             &lt;&lt;&lt;?load
             /*
                 [[load-cmt]]
             */
             [[load]]
+            &gt;&gt;&gt;
+            &lt;&lt;&lt;?save
+            /*
+                [[save-cmt]]
+            */
+            [[save]]
             &gt;&gt;&gt;
             &lt;&lt;&lt;?chart
             /*
@@ -443,94 +589,13 @@
         }
     }
 }</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロードへ
-チャート編集へ
-レイアウトセーブへ</t>
-    <rPh sb="9" eb="11">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>br_loadexcel(S_LOADEXCEL);
-br_editchart(S_EDITCHART);
-br_savelayout(S_SAVELAYOUT);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S_SAVELAYOUT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイアウト保存</t>
-    <rPh sb="5" eb="7">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>save</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>save-cmt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セーブ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セーブ説明</t>
-    <rPh sb="3" eb="5">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>save_layout();</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラー時遷移</t>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラー時遷移</t>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エクセルロード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャート編集</t>
-    <rPh sb="4" eb="6">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +608,21 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -732,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -749,6 +829,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -758,6 +847,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -767,24 +865,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="アクセント 1" xfId="1" builtinId="29"/>
@@ -1067,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
@@ -1078,7 +1162,7 @@
     <col min="1" max="16384" width="15.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="144.75" customHeight="1">
+    <row r="1" spans="1:14" ht="144.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1091,460 +1175,532 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" ht="37.5">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" ht="37.5">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="37.5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="37.5">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" ht="37.5">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="56.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="37.5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" ht="37.5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" ht="37.5">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" ht="37.5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" ht="37.5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" ht="37.5">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7" t="s">
+      <c r="K14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" ht="37.5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" ht="37.5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" ht="37.5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" ht="112.5">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" ht="75">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" ht="37.5">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" ht="37.5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" ht="37.5">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" ht="37.5">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="1:13" ht="112.5">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="1:13" ht="75">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
-    </row>
-    <row r="19" spans="1:13" ht="37.5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:14" ht="37.5">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C21" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" ht="19.5" thickBot="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C22" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="11"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1560,10 +1716,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="19"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="1" t="s">
-        <v>62</v>
+      <c r="A1" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
